--- a/map数据表.xlsx
+++ b/map数据表.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="点表" sheetId="1" r:id="rId1"/>
     <sheet name="道路表" sheetId="2" r:id="rId2"/>
-    <sheet name="设计需求" sheetId="3" r:id="rId3"/>
+    <sheet name="配置文件" sheetId="4" r:id="rId3"/>
+    <sheet name="设计需求" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>父点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,299 +44,347 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同项数据间用制表符分隔。父点道路，同一方向逗号分隔，不同方向|分隔，该方向没有道路填0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始道路长度(km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标道路长度(km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,1|2.8|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始点S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止点D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有无红绿灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父点用于建立拓扑关系，进行规划。子点用于确认定位点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子车道Lane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父车道Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便于更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采完地图以后一步操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001,0002|0002|0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1|0|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID第一位从1开始计数，避免0001被记为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始点S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionPointAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissionPoint属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow = 1,</t>
+  </si>
+  <si>
+    <t>//减速点</t>
+  </si>
+  <si>
+    <t>Yeild = 2,</t>
+  </si>
+  <si>
+    <t>//让行点，只减速不避障</t>
+  </si>
+  <si>
+    <t>Fork = 3,</t>
+  </si>
+  <si>
+    <t>//路口点</t>
+  </si>
+  <si>
+    <t>LightSign = 4,</t>
+  </si>
+  <si>
+    <t>//红绿灯检测</t>
+  </si>
+  <si>
+    <t>CrossLine = 5,</t>
+  </si>
+  <si>
+    <t>//人行道</t>
+  </si>
+  <si>
+    <t>StopLine =8</t>
+  </si>
+  <si>
+    <t>//停止线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTurn = 6,   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//掉头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LightAndPedestrian = 7, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//先检测行人再检测红绿灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务点可能为障碍物，故有长度宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtensionAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtensionAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtensionAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名：Road的ID作为Lane ID的前四位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（obstacle,length,width）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004,0005|0|0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名：子点ID的前四位为父点ID，其对应父点为所在lane的终止点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通行：1可以通行，2部分子车道禁止通行，3完全禁止通行，0未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通行方向：1顺向，2部分子车道逆向，3全部车道逆向，0未定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度限制：Road为0则查询Lane的速度，否则表示该路段全部为某值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start point id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end point id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lane Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标道路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同项数据间用制表符分隔。父点道路，同一方向逗号分隔，不同方向|分隔，该方向没有道路填0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始道路长度(km)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标道路长度(km)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5,1|2.8|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始点S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止点D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否通行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否通行：0可以通行，1部分子车道禁止通行，2完全禁止通行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通行方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度限制：Road为0则查询Lane的速度，否则表示该路段全部为某值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无红绿灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父点用于建立拓扑关系，进行规划。子点用于确认定位点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子车道Lane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父车道Road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便于更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采完地图以后一步操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001,0002|0002|0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1|0|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID第一位从1开始计数，避免0001被记为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始道路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始点S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissionPointAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissionPoint属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slow = 1,</t>
-  </si>
-  <si>
-    <t>//减速点</t>
-  </si>
-  <si>
-    <t>Yeild = 2,</t>
-  </si>
-  <si>
-    <t>//让行点，只减速不避障</t>
-  </si>
-  <si>
-    <t>Fork = 3,</t>
-  </si>
-  <si>
-    <t>//路口点</t>
-  </si>
-  <si>
-    <t>LightSign = 4,</t>
-  </si>
-  <si>
-    <t>//红绿灯检测</t>
-  </si>
-  <si>
-    <t>CrossLine = 5,</t>
-  </si>
-  <si>
-    <t>//人行道</t>
-  </si>
-  <si>
-    <t>StopLine =8</t>
-  </si>
-  <si>
-    <t>//停止线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTurn = 6,   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//掉头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LightAndPedestrian = 7, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//先检测行人再检测红绿灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务点可能为障碍物，故有长度宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网格索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10010001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtensionAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtensionAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtensionAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名：Road的ID作为Lane ID的前四位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通行方向：0顺向，1部分子车道逆向，2全部车道逆向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（obstacle,length,width）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间戳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lane</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004,0005|0|0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名：子点ID的前四位为父点ID，其对应父点为所在lane的终止点</t>
+    <t>roda_id=序号+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane_id=序号+1000*road_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：相连的lane的终点和起点id相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>road的S和D采用和Lane的S和D，去除重复的lane，只保留first lane的S和D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x,y&lt;--&gt;point--&gt;lane&lt;--&gt;road&lt;--&gt;fpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane为路径规划的最小单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hied是否可检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0可检索，1不可检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -682,6 +731,7 @@
     <col min="7" max="7" width="17.703125" customWidth="1"/>
     <col min="8" max="8" width="13.703125" customWidth="1"/>
     <col min="9" max="9" width="13.76171875" customWidth="1"/>
+    <col min="10" max="10" width="17.76171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -694,57 +744,57 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -757,141 +807,147 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -903,125 +959,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I22"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.9375" style="1"/>
-    <col min="8" max="8" width="9.05859375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>10010001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4">
-        <v>10010001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13">
+        <v>63</v>
+      </c>
+      <c r="G13">
         <v>1001</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1033,10 +1105,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -1046,30 +1154,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
